--- a/tests/integration/out/ai-and-nanotech-applicant_types.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicant_types.xlsx
@@ -510,28 +510,28 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>109.6190476190476</v>
+        <v>108.6190476190476</v>
       </c>
       <c r="C2">
         <v>210</v>
       </c>
       <c r="D2">
-        <v>1.508156493155883</v>
+        <v>1.518999569397678</v>
       </c>
       <c r="E2">
-        <v>0.876699704159613</v>
+        <v>0.8841288210989252</v>
       </c>
       <c r="F2">
-        <v>1.685636867557182</v>
+        <v>1.694791540874924</v>
       </c>
       <c r="G2">
         <v>2.333333333333333</v>
       </c>
       <c r="H2">
-        <v>24.83333333333334</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>16.5</v>

--- a/tests/integration/out/ai-and-nanotech-applicant_types.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicant_types.xlsx
@@ -522,7 +522,7 @@
         <v>0.8841288210989252</v>
       </c>
       <c r="F2">
-        <v>1.694791540874924</v>
+        <v>1.694791540874925</v>
       </c>
       <c r="G2">
         <v>2.333333333333333</v>
